--- a/example.xlsx
+++ b/example.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Server\htdocs\OrderManag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED5863-9602-4DEF-8A8F-69C3DEB00B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0214BE-449C-4365-9B00-811BC7418814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{6B08F549-2245-4915-9B46-CDEB3AEF93D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Código do Objeto</t>
   </si>
@@ -206,17 +222,132 @@
   </si>
   <si>
     <t>Localidade em caso de não entrega</t>
+  </si>
+  <si>
+    <t>Edifício Lusíadas</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>+351</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Henrique Fernando Marques</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Rua Circular Gestosa de Cima, 161 Sandim</t>
+  </si>
+  <si>
+    <t>4415-800</t>
+  </si>
+  <si>
+    <t>SANDIM</t>
+  </si>
+  <si>
+    <t>ri-quemarques@hotmail.com</t>
+  </si>
+  <si>
+    <t>914366681</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Venda de mercadorias</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Suporte de telemovel - Impressao 3d</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>Rob Barber</t>
+  </si>
+  <si>
+    <t>428 Spruce Way SE Medicine Hat AB</t>
+  </si>
+  <si>
+    <t>T1B 4L6</t>
+  </si>
+  <si>
+    <t>Medicine Hat AB</t>
+  </si>
+  <si>
+    <t>robarber@hotmail.com</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,17 +367,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,9 +425,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,44 +435,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -334,14 +500,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -369,9 +552,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,438 +580,880 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440AD90-D4DC-45FB-A3C3-EAB8F24CC176}">
+  <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="31" style="2" customWidth="1"/>
+    <col min="81" max="81" width="36.140625" style="2" customWidth="1"/>
+    <col min="82" max="82" width="39.5703125" style="2" customWidth="1"/>
+    <col min="83" max="83" width="35" style="2" customWidth="1"/>
+    <col min="84" max="84" width="39.140625" style="2" customWidth="1"/>
+    <col min="85" max="85" width="36.140625" style="2" customWidth="1"/>
+    <col min="86" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="6" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2">
+        <v>225893118</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>392640</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WVEntjCvESWrXoJZiftSl8sFKwduGDlPIPoNf+Lr0vYr+saqSNMHYnhVFDXBUTvwSdLGlMywQ3SkHT+QAjr2IA==" saltValue="uKcfS8a6iot/g9lJ/TZKeA==" spinCount="100000" sheet="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009388EFF94288CB42B85CB342B75A1094" ma:contentTypeVersion="10" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="ca379eb015df41e640fe8b53439b6d22">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e465181-e585-4e58-a520-9b1e8a30f121" xmlns:ns4="c7772e09-74e8-4bb1-894d-d009ac243d6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cda919407f5edd46d4d83ee36bdb6954" ns3:_="" ns4:_="">
+    <xsd:import namespace="7e465181-e585-4e58-a520-9b1e8a30f121"/>
+    <xsd:import namespace="c7772e09-74e8-4bb1-894d-d009ac243d6d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e465181-e585-4e58-a520-9b1e8a30f121" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7772e09-74e8-4bb1-894d-d009ac243d6d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Hash de Sugestão de Partilha" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC398A0-6E7D-4E08-A5DF-77B2FD74D461}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7e465181-e585-4e58-a520-9b1e8a30f121"/>
+    <ds:schemaRef ds:uri="c7772e09-74e8-4bb1-894d-d009ac243d6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B88D696-4F35-48D7-A259-3CBB3488F996}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621AD807-315C-4472-97A2-2C3B7D4D5FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>